--- a/natmiOut/OldD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H2">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I2">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J2">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N2">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O2">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P2">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q2">
-        <v>308.4440630636395</v>
+        <v>644.6987986499986</v>
       </c>
       <c r="R2">
-        <v>308.4440630636395</v>
+        <v>5802.289187849987</v>
       </c>
       <c r="S2">
-        <v>0.01516554038707193</v>
+        <v>0.0258921998128254</v>
       </c>
       <c r="T2">
-        <v>0.01516554038707193</v>
+        <v>0.02878163682867638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H3">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I3">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J3">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N3">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O3">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P3">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q3">
-        <v>545.6745429468976</v>
+        <v>1067.107400487756</v>
       </c>
       <c r="R3">
-        <v>545.6745429468976</v>
+        <v>9603.966604389805</v>
       </c>
       <c r="S3">
-        <v>0.02682965992945945</v>
+        <v>0.04285684740382716</v>
       </c>
       <c r="T3">
-        <v>0.02682965992945945</v>
+        <v>0.04763945228740125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H4">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I4">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J4">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N4">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O4">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P4">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q4">
-        <v>145.7695152631372</v>
+        <v>283.0451864006786</v>
       </c>
       <c r="R4">
-        <v>145.7695152631372</v>
+        <v>2547.406677606108</v>
       </c>
       <c r="S4">
-        <v>0.007167177895950908</v>
+        <v>0.01136757589387637</v>
       </c>
       <c r="T4">
-        <v>0.007167177895950908</v>
+        <v>0.01263613919887574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H5">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I5">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J5">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N5">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O5">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P5">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q5">
-        <v>172.3310856311915</v>
+        <v>317.3067220215892</v>
       </c>
       <c r="R5">
-        <v>172.3310856311915</v>
+        <v>2855.760498194303</v>
       </c>
       <c r="S5">
-        <v>0.008473153975243017</v>
+        <v>0.01274357741280034</v>
       </c>
       <c r="T5">
-        <v>0.008473153975243017</v>
+        <v>0.01416569544669055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H6">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I6">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J6">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N6">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O6">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P6">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q6">
-        <v>354.551748863623</v>
+        <v>638.7411566102725</v>
       </c>
       <c r="R6">
-        <v>354.551748863623</v>
+        <v>3832.446939661635</v>
       </c>
       <c r="S6">
-        <v>0.01743255750586083</v>
+        <v>0.02565293077986165</v>
       </c>
       <c r="T6">
-        <v>0.01743255750586083</v>
+        <v>0.01901044439727178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H7">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J7">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N7">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O7">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P7">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q7">
-        <v>1344.93708235547</v>
+        <v>1670.46700816629</v>
       </c>
       <c r="R7">
-        <v>1344.93708235547</v>
+        <v>15034.20307349662</v>
       </c>
       <c r="S7">
-        <v>0.06612770379802782</v>
+        <v>0.06708879502605589</v>
       </c>
       <c r="T7">
-        <v>0.06612770379802782</v>
+        <v>0.07457556127606391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H8">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J8">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N8">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O8">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P8">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q8">
-        <v>2379.355013084607</v>
+        <v>2764.962041836579</v>
       </c>
       <c r="R8">
-        <v>2379.355013084607</v>
+        <v>24884.65837652921</v>
       </c>
       <c r="S8">
-        <v>0.1169878395055106</v>
+        <v>0.1110455763404897</v>
       </c>
       <c r="T8">
-        <v>0.1169878395055106</v>
+        <v>0.1234376944704364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H9">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J9">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N9">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O9">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P9">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q9">
-        <v>635.6122552889757</v>
+        <v>733.3930925459973</v>
       </c>
       <c r="R9">
-        <v>635.6122552889757</v>
+        <v>6600.537832913976</v>
       </c>
       <c r="S9">
-        <v>0.0312517064921233</v>
+        <v>0.02945431344576766</v>
       </c>
       <c r="T9">
-        <v>0.0312517064921233</v>
+        <v>0.03274126411669992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H10">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J10">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N10">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O10">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P10">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q10">
-        <v>751.4311191658263</v>
+        <v>822.1675171667518</v>
       </c>
       <c r="R10">
-        <v>751.4311191658263</v>
+        <v>7399.507654500767</v>
       </c>
       <c r="S10">
-        <v>0.03694627438317966</v>
+        <v>0.03301964526484719</v>
       </c>
       <c r="T10">
-        <v>0.03694627438317966</v>
+        <v>0.03670446872396706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H11">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J11">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N11">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O11">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P11">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q11">
-        <v>1545.984675225488</v>
+        <v>1655.030273221745</v>
       </c>
       <c r="R11">
-        <v>1545.984675225488</v>
+        <v>9930.181639330471</v>
       </c>
       <c r="S11">
-        <v>0.07601278752799011</v>
+        <v>0.06646882950653152</v>
       </c>
       <c r="T11">
-        <v>0.07601278752799011</v>
+        <v>0.04925760718450237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H12">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I12">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J12">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N12">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O12">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P12">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q12">
-        <v>977.925481201339</v>
+        <v>1346.246843889326</v>
       </c>
       <c r="R12">
-        <v>977.925481201339</v>
+        <v>12116.22159500394</v>
       </c>
       <c r="S12">
-        <v>0.04808252178173943</v>
+        <v>0.05406756201866558</v>
       </c>
       <c r="T12">
-        <v>0.04808252178173943</v>
+        <v>0.0601012252911144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H13">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I13">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J13">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N13">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O13">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P13">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q13">
-        <v>1730.067470549968</v>
+        <v>2228.311845788776</v>
       </c>
       <c r="R13">
-        <v>1730.067470549968</v>
+        <v>20054.80661209898</v>
       </c>
       <c r="S13">
-        <v>0.08506374814408894</v>
+        <v>0.08949279210270621</v>
       </c>
       <c r="T13">
-        <v>0.08506374814408894</v>
+        <v>0.09947972979138142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H14">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I14">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J14">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N14">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O14">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P14">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q14">
-        <v>462.1639396858078</v>
+        <v>591.0491684921654</v>
       </c>
       <c r="R14">
-        <v>462.1639396858078</v>
+        <v>5319.442516429489</v>
       </c>
       <c r="S14">
-        <v>0.0227236206887447</v>
+        <v>0.0237375394554002</v>
       </c>
       <c r="T14">
-        <v>0.0227236206887447</v>
+        <v>0.02638652740016657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H15">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I15">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J15">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N15">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O15">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P15">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q15">
-        <v>546.3777067644868</v>
+        <v>662.5934063487233</v>
       </c>
       <c r="R15">
-        <v>546.3777067644868</v>
+        <v>5963.340657138509</v>
       </c>
       <c r="S15">
-        <v>0.02686423300299653</v>
+        <v>0.02661087768081231</v>
       </c>
       <c r="T15">
-        <v>0.02686423300299653</v>
+        <v>0.02958051546945378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H16">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I16">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J16">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N16">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O16">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P16">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q16">
-        <v>1124.110434074709</v>
+        <v>1333.80621764681</v>
       </c>
       <c r="R16">
-        <v>1124.110434074709</v>
+        <v>8002.837305880862</v>
       </c>
       <c r="S16">
-        <v>0.055270125863864</v>
+        <v>0.05356792531832985</v>
       </c>
       <c r="T16">
-        <v>0.055270125863864</v>
+        <v>0.03969722112768313</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H17">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I17">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J17">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N17">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O17">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P17">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q17">
-        <v>1075.907144371125</v>
+        <v>1281.782681709546</v>
       </c>
       <c r="R17">
-        <v>1075.907144371125</v>
+        <v>11536.04413538592</v>
       </c>
       <c r="S17">
-        <v>0.05290007234580158</v>
+        <v>0.05147857166934218</v>
       </c>
       <c r="T17">
-        <v>0.05290007234580158</v>
+        <v>0.05722331686595759</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H18">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I18">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J18">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N18">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O18">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P18">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q18">
-        <v>1903.40878481063</v>
+        <v>2121.610569669861</v>
       </c>
       <c r="R18">
-        <v>1903.40878481063</v>
+        <v>19094.49512702875</v>
       </c>
       <c r="S18">
-        <v>0.09358657291840076</v>
+        <v>0.08520748744983644</v>
       </c>
       <c r="T18">
-        <v>0.09358657291840076</v>
+        <v>0.0947162070659759</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H19">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I19">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J19">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N19">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O19">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P19">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q19">
-        <v>508.4697087224087</v>
+        <v>562.747160114692</v>
       </c>
       <c r="R19">
-        <v>508.4697087224087</v>
+        <v>5064.724441032227</v>
       </c>
       <c r="S19">
-        <v>0.02500037714015385</v>
+        <v>0.02260088268242608</v>
       </c>
       <c r="T19">
-        <v>0.02500037714015385</v>
+        <v>0.02512302554728841</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H20">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I20">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J20">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N20">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O20">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P20">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q20">
-        <v>601.1211380961997</v>
+        <v>630.8655482668304</v>
       </c>
       <c r="R20">
-        <v>601.1211380961997</v>
+        <v>5677.789934401473</v>
       </c>
       <c r="S20">
-        <v>0.02955585141361478</v>
+        <v>0.02533663295938648</v>
       </c>
       <c r="T20">
-        <v>0.02955585141361478</v>
+        <v>0.02816407155707636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H21">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I21">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J21">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N21">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O21">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P21">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q21">
-        <v>1236.738862349065</v>
+        <v>1269.937766834048</v>
       </c>
       <c r="R21">
-        <v>1236.738862349065</v>
+        <v>7619.626601004285</v>
       </c>
       <c r="S21">
-        <v>0.06080782680309316</v>
+        <v>0.05100285975028086</v>
       </c>
       <c r="T21">
-        <v>0.06080782680309316</v>
+        <v>0.03779634528721065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H22">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I22">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J22">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.9310942591835</v>
+        <v>25.47609633333333</v>
       </c>
       <c r="N22">
-        <v>21.9310942591835</v>
+        <v>76.42828900000001</v>
       </c>
       <c r="O22">
-        <v>0.2020237953166894</v>
+        <v>0.2184753666375218</v>
       </c>
       <c r="P22">
-        <v>0.2020237953166894</v>
+        <v>0.2354646465379024</v>
       </c>
       <c r="Q22">
-        <v>401.643458793417</v>
+        <v>496.698049531453</v>
       </c>
       <c r="R22">
-        <v>401.643458793417</v>
+        <v>2980.188297188718</v>
       </c>
       <c r="S22">
-        <v>0.01974795700404866</v>
+        <v>0.01994823811063271</v>
       </c>
       <c r="T22">
-        <v>0.01974795700404866</v>
+        <v>0.01478290627609008</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H23">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I23">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J23">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>38.7987362030572</v>
+        <v>42.16811166666667</v>
       </c>
       <c r="N23">
-        <v>38.7987362030572</v>
+        <v>126.504335</v>
       </c>
       <c r="O23">
-        <v>0.3574043250464091</v>
+        <v>0.3616210873222725</v>
       </c>
       <c r="P23">
-        <v>0.3574043250464091</v>
+        <v>0.3897417947729719</v>
       </c>
       <c r="Q23">
-        <v>710.5554525116264</v>
+        <v>822.136113131795</v>
       </c>
       <c r="R23">
-        <v>710.5554525116264</v>
+        <v>4932.81667879077</v>
       </c>
       <c r="S23">
-        <v>0.03493650454894928</v>
+        <v>0.033018384025413</v>
       </c>
       <c r="T23">
-        <v>0.03493650454894928</v>
+        <v>0.02446871115777695</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H24">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I24">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J24">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.3645534545165</v>
+        <v>11.184892</v>
       </c>
       <c r="N24">
-        <v>10.3645534545165</v>
+        <v>33.554676</v>
       </c>
       <c r="O24">
-        <v>0.09547569313680401</v>
+        <v>0.09591828153451469</v>
       </c>
       <c r="P24">
-        <v>0.09547569313680401</v>
+        <v>0.1033771660652227</v>
       </c>
       <c r="Q24">
-        <v>189.8152025213287</v>
+        <v>218.067712098852</v>
       </c>
       <c r="R24">
-        <v>189.8152025213287</v>
+        <v>1308.406272593112</v>
       </c>
       <c r="S24">
-        <v>0.009332810919831232</v>
+        <v>0.008757970057044361</v>
       </c>
       <c r="T24">
-        <v>0.009332810919831232</v>
+        <v>0.006490209802192079</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H25">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I25">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J25">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.2531432287134</v>
+        <v>12.53878033333334</v>
       </c>
       <c r="N25">
-        <v>12.2531432287134</v>
+        <v>37.61634100000001</v>
       </c>
       <c r="O25">
-        <v>0.1128729132422158</v>
+        <v>0.1075288221032535</v>
       </c>
       <c r="P25">
-        <v>0.1128729132422158</v>
+        <v>0.1158905760354547</v>
       </c>
       <c r="Q25">
-        <v>224.4026116212047</v>
+        <v>244.4639733490571</v>
       </c>
       <c r="R25">
-        <v>224.4026116212047</v>
+        <v>1466.783840094342</v>
       </c>
       <c r="S25">
-        <v>0.01103340046718175</v>
+        <v>0.009818088785407143</v>
       </c>
       <c r="T25">
-        <v>0.01103340046718175</v>
+        <v>0.007275824838266946</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H26">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I26">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J26">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.2094585541825</v>
+        <v>25.2406725</v>
       </c>
       <c r="N26">
-        <v>25.2094585541825</v>
+        <v>50.481345</v>
       </c>
       <c r="O26">
-        <v>0.2322232732578817</v>
+        <v>0.2164564424024374</v>
       </c>
       <c r="P26">
-        <v>0.2322232732578817</v>
+        <v>0.1555258165884481</v>
       </c>
       <c r="Q26">
-        <v>461.6830336120273</v>
+        <v>492.1080779243476</v>
       </c>
       <c r="R26">
-        <v>461.6830336120273</v>
+        <v>1968.43231169739</v>
       </c>
       <c r="S26">
-        <v>0.0226999755570736</v>
+        <v>0.01976389704743355</v>
       </c>
       <c r="T26">
-        <v>0.0226999755570736</v>
+        <v>0.009764198591780177</v>
       </c>
     </row>
   </sheetData>
